--- a/rider/monthly/2016_8.xlsx
+++ b/rider/monthly/2016_8.xlsx
@@ -339,97 +339,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>166</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>189</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>216</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>169</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>183</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>145</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>213</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>212</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>239</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>177</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>170</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>199</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>213</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>200</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>84</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>191</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>192</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>188</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>222</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>190</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>301</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>114</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>202</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>252</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>187</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -559,97 +559,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>92.16</c:v>
+                  <c:v>92.47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.96</c:v>
+                  <c:v>93.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.5</c:v>
+                  <c:v>99.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.5</c:v>
+                  <c:v>97.69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.36</c:v>
+                  <c:v>94.67</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>40.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.13</c:v>
+                  <c:v>33.19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93.36</c:v>
+                  <c:v>93.43</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96.34</c:v>
+                  <c:v>96.16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>102.78</c:v>
+                  <c:v>101.71</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>99.65</c:v>
+                  <c:v>99.84</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97.5</c:v>
+                  <c:v>97.89</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41.57</c:v>
+                  <c:v>41.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33.96</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95.22</c:v>
+                  <c:v>95.09</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>97.78</c:v>
+                  <c:v>97.88</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>104.7</c:v>
+                  <c:v>103.58</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100.11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.02</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96.91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>99.79</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>105.55</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>103.92</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>101.92</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>99.68</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42.46</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>34.98</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>97.3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>99.6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>106.33</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>104.27</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>101.56</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>47.73</c:v>
+                  <c:v>47.88</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>36.56</c:v>
+                  <c:v>36.66</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>99.53</c:v>
+                  <c:v>100.11</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>102.47</c:v>
+                  <c:v>102.36</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>107.88</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1314,10 +1314,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D2">
-        <v>92.16</v>
+        <v>92.47</v>
       </c>
       <c r="E2">
         <v>73.65</v>
@@ -1331,10 +1331,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D3">
-        <v>93.96</v>
+        <v>93.86</v>
       </c>
       <c r="E3">
         <v>73.81</v>
@@ -1348,10 +1348,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="D4">
-        <v>100.5</v>
+        <v>99.65</v>
       </c>
       <c r="E4">
         <v>73.97</v>
@@ -1365,10 +1365,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D5">
-        <v>97.5</v>
+        <v>97.69</v>
       </c>
       <c r="E5">
         <v>74.13</v>
@@ -1382,10 +1382,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D6">
-        <v>94.36</v>
+        <v>94.67</v>
       </c>
       <c r="E6">
         <v>74.29</v>
@@ -1416,10 +1416,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>33.13</v>
+        <v>33.19</v>
       </c>
       <c r="E8">
         <v>74.62</v>
@@ -1433,10 +1433,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D9">
-        <v>93.36</v>
+        <v>93.43</v>
       </c>
       <c r="E9">
         <v>74.78</v>
@@ -1450,10 +1450,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D10">
-        <v>96.34</v>
+        <v>96.16</v>
       </c>
       <c r="E10">
         <v>74.94</v>
@@ -1467,10 +1467,10 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D11">
-        <v>102.78</v>
+        <v>101.71</v>
       </c>
       <c r="E11">
         <v>75.1</v>
@@ -1487,7 +1487,7 @@
         <v>203</v>
       </c>
       <c r="D12">
-        <v>99.65</v>
+        <v>99.84</v>
       </c>
       <c r="E12">
         <v>75.26</v>
@@ -1501,10 +1501,10 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D13">
-        <v>97.5</v>
+        <v>97.89</v>
       </c>
       <c r="E13">
         <v>75.42</v>
@@ -1518,10 +1518,10 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D14">
-        <v>41.57</v>
+        <v>41.6</v>
       </c>
       <c r="E14">
         <v>75.58</v>
@@ -1535,10 +1535,10 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15">
-        <v>33.96</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>75.75</v>
@@ -1552,10 +1552,10 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D16">
-        <v>95.22</v>
+        <v>95.09</v>
       </c>
       <c r="E16">
         <v>75.91</v>
@@ -1569,10 +1569,10 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D17">
-        <v>97.78</v>
+        <v>97.88</v>
       </c>
       <c r="E17">
         <v>76.07</v>
@@ -1586,10 +1586,10 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D18">
-        <v>104.7</v>
+        <v>103.58</v>
       </c>
       <c r="E18">
         <v>76.23</v>
@@ -1603,10 +1603,10 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D19">
-        <v>101.92</v>
+        <v>102</v>
       </c>
       <c r="E19">
         <v>76.39</v>
@@ -1620,10 +1620,10 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D20">
-        <v>99.68</v>
+        <v>100.11</v>
       </c>
       <c r="E20">
         <v>76.55</v>
@@ -1637,10 +1637,10 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D21">
-        <v>42.46</v>
+        <v>42.5</v>
       </c>
       <c r="E21">
         <v>76.71</v>
@@ -1657,7 +1657,7 @@
         <v>84</v>
       </c>
       <c r="D22">
-        <v>34.98</v>
+        <v>35.02</v>
       </c>
       <c r="E22">
         <v>76.88</v>
@@ -1671,10 +1671,10 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D23">
-        <v>97.3</v>
+        <v>96.91</v>
       </c>
       <c r="E23">
         <v>77.04</v>
@@ -1688,10 +1688,10 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D24">
-        <v>99.6</v>
+        <v>99.79</v>
       </c>
       <c r="E24">
         <v>77.2</v>
@@ -1705,10 +1705,10 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D25">
-        <v>106.33</v>
+        <v>105.55</v>
       </c>
       <c r="E25">
         <v>77.36</v>
@@ -1722,10 +1722,10 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="D26">
-        <v>104.27</v>
+        <v>103.92</v>
       </c>
       <c r="E26">
         <v>77.52</v>
@@ -1739,10 +1739,10 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D27">
-        <v>101.56</v>
+        <v>101.92</v>
       </c>
       <c r="E27">
         <v>77.68</v>
@@ -1756,10 +1756,10 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D28">
-        <v>47.73</v>
+        <v>47.88</v>
       </c>
       <c r="E28">
         <v>77.84</v>
@@ -1773,10 +1773,10 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D29">
-        <v>36.56</v>
+        <v>36.66</v>
       </c>
       <c r="E29">
         <v>78.01</v>
@@ -1790,10 +1790,10 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="D30">
-        <v>99.53</v>
+        <v>100.11</v>
       </c>
       <c r="E30">
         <v>78.17</v>
@@ -1807,10 +1807,10 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D31">
-        <v>102.47</v>
+        <v>102.36</v>
       </c>
       <c r="E31">
         <v>78.33</v>
@@ -1824,10 +1824,10 @@
         <v>42</v>
       </c>
       <c r="C32">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D32">
-        <v>107.88</v>
+        <v>107</v>
       </c>
       <c r="E32">
         <v>78.49</v>

--- a/rider/monthly/2016_8.xlsx
+++ b/rider/monthly/2016_8.xlsx
@@ -339,97 +339,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>179</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>197</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>135</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>209</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>201</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>203</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>243</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>168</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>184</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>195</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>208</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>202</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>85</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>179</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>197</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>204</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>200</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>187</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>306</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>117</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>247</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>236</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>181</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -559,97 +559,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>92.47</c:v>
+                  <c:v>92.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.86</c:v>
+                  <c:v>93.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.65</c:v>
+                  <c:v>100.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.69</c:v>
+                  <c:v>97.58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.67</c:v>
+                  <c:v>94.27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.3</c:v>
+                  <c:v>40.37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.19</c:v>
+                  <c:v>33.17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93.43</c:v>
+                  <c:v>93.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96.16</c:v>
+                  <c:v>96.18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>101.71</c:v>
+                  <c:v>101.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>99.84</c:v>
+                  <c:v>99.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97.89</c:v>
+                  <c:v>97.72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41.6</c:v>
+                  <c:v>41.66</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95.09</c:v>
+                  <c:v>95.58</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>97.88</c:v>
+                  <c:v>97.82</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>103.58</c:v>
+                  <c:v>103.84</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>102</c:v>
+                  <c:v>102.32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100.11</c:v>
+                  <c:v>99.96</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.5</c:v>
+                  <c:v>42.54</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>35.02</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>96.91</c:v>
+                  <c:v>97.26</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>99.79</c:v>
+                  <c:v>99.46</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>105.55</c:v>
+                  <c:v>105.33</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>103.92</c:v>
+                  <c:v>104.45</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>101.92</c:v>
+                  <c:v>101.83</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47.88</c:v>
+                  <c:v>47.67</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>36.66</c:v>
+                  <c:v>36.64</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>100.11</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>102.36</c:v>
+                  <c:v>101.98</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>107</c:v>
+                  <c:v>107.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1314,10 +1314,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D2">
-        <v>92.47</v>
+        <v>92.6</v>
       </c>
       <c r="E2">
         <v>73.65</v>
@@ -1331,10 +1331,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D3">
-        <v>93.86</v>
+        <v>93.8</v>
       </c>
       <c r="E3">
         <v>73.81</v>
@@ -1348,10 +1348,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="D4">
-        <v>99.65</v>
+        <v>100.02</v>
       </c>
       <c r="E4">
         <v>73.97</v>
@@ -1365,10 +1365,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D5">
-        <v>97.69</v>
+        <v>97.58</v>
       </c>
       <c r="E5">
         <v>74.13</v>
@@ -1382,10 +1382,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D6">
-        <v>94.67</v>
+        <v>94.27</v>
       </c>
       <c r="E6">
         <v>74.29</v>
@@ -1399,10 +1399,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D7">
-        <v>40.3</v>
+        <v>40.37</v>
       </c>
       <c r="E7">
         <v>74.45</v>
@@ -1416,10 +1416,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>33.19</v>
+        <v>33.17</v>
       </c>
       <c r="E8">
         <v>74.62</v>
@@ -1433,10 +1433,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D9">
-        <v>93.43</v>
+        <v>93.7</v>
       </c>
       <c r="E9">
         <v>74.78</v>
@@ -1450,10 +1450,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D10">
-        <v>96.16</v>
+        <v>96.18</v>
       </c>
       <c r="E10">
         <v>74.94</v>
@@ -1467,10 +1467,10 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D11">
-        <v>101.71</v>
+        <v>101.9</v>
       </c>
       <c r="E11">
         <v>75.1</v>
@@ -1484,10 +1484,10 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D12">
-        <v>99.84</v>
+        <v>99.9</v>
       </c>
       <c r="E12">
         <v>75.26</v>
@@ -1501,10 +1501,10 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D13">
-        <v>97.89</v>
+        <v>97.72</v>
       </c>
       <c r="E13">
         <v>75.42</v>
@@ -1521,7 +1521,7 @@
         <v>101</v>
       </c>
       <c r="D14">
-        <v>41.6</v>
+        <v>41.66</v>
       </c>
       <c r="E14">
         <v>75.58</v>
@@ -1535,7 +1535,7 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <v>34</v>
@@ -1552,10 +1552,10 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D16">
-        <v>95.09</v>
+        <v>95.58</v>
       </c>
       <c r="E16">
         <v>75.91</v>
@@ -1569,10 +1569,10 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D17">
-        <v>97.88</v>
+        <v>97.82</v>
       </c>
       <c r="E17">
         <v>76.07</v>
@@ -1586,10 +1586,10 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D18">
-        <v>103.58</v>
+        <v>103.84</v>
       </c>
       <c r="E18">
         <v>76.23</v>
@@ -1603,10 +1603,10 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D19">
-        <v>102</v>
+        <v>102.32</v>
       </c>
       <c r="E19">
         <v>76.39</v>
@@ -1620,10 +1620,10 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D20">
-        <v>100.11</v>
+        <v>99.96</v>
       </c>
       <c r="E20">
         <v>76.55</v>
@@ -1637,10 +1637,10 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21">
-        <v>42.5</v>
+        <v>42.54</v>
       </c>
       <c r="E21">
         <v>76.71</v>
@@ -1671,10 +1671,10 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D23">
-        <v>96.91</v>
+        <v>97.26</v>
       </c>
       <c r="E23">
         <v>77.04</v>
@@ -1688,10 +1688,10 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="D24">
-        <v>99.79</v>
+        <v>99.46</v>
       </c>
       <c r="E24">
         <v>77.2</v>
@@ -1705,10 +1705,10 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="D25">
-        <v>105.55</v>
+        <v>105.33</v>
       </c>
       <c r="E25">
         <v>77.36</v>
@@ -1722,10 +1722,10 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D26">
-        <v>103.92</v>
+        <v>104.45</v>
       </c>
       <c r="E26">
         <v>77.52</v>
@@ -1739,10 +1739,10 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D27">
-        <v>101.92</v>
+        <v>101.83</v>
       </c>
       <c r="E27">
         <v>77.68</v>
@@ -1756,10 +1756,10 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D28">
-        <v>47.88</v>
+        <v>47.67</v>
       </c>
       <c r="E28">
         <v>77.84</v>
@@ -1773,10 +1773,10 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29">
-        <v>36.66</v>
+        <v>36.64</v>
       </c>
       <c r="E29">
         <v>78.01</v>
@@ -1790,10 +1790,10 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="D30">
-        <v>100.11</v>
+        <v>100</v>
       </c>
       <c r="E30">
         <v>78.17</v>
@@ -1807,10 +1807,10 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D31">
-        <v>102.36</v>
+        <v>101.98</v>
       </c>
       <c r="E31">
         <v>78.33</v>
@@ -1824,10 +1824,10 @@
         <v>42</v>
       </c>
       <c r="C32">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="D32">
-        <v>107</v>
+        <v>107.6</v>
       </c>
       <c r="E32">
         <v>78.49</v>

--- a/rider/monthly/2016_8.xlsx
+++ b/rider/monthly/2016_8.xlsx
@@ -339,19 +339,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>185</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>181</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>193</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>173</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>179</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>69</c:v>
@@ -360,76 +360,76 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>141</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>213</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>192</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>211</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>253</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>101</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>178</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>180</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>199</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>221</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>203</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>84</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -559,19 +559,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>92.6</c:v>
+                  <c:v>92.49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.8</c:v>
+                  <c:v>93.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.02</c:v>
+                  <c:v>100.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.58</c:v>
+                  <c:v>97.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.27</c:v>
+                  <c:v>94.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>40.37</c:v>
@@ -580,76 +580,76 @@
                   <c:v>33.17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93.7</c:v>
+                  <c:v>93.55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96.18</c:v>
+                  <c:v>96.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>101.9</c:v>
+                  <c:v>102.65</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>99.9</c:v>
+                  <c:v>99.47</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97.72</c:v>
+                  <c:v>97.74</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41.66</c:v>
+                  <c:v>41.64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34</c:v>
+                  <c:v>33.98</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95.58</c:v>
+                  <c:v>95.51</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>97.82</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>103.84</c:v>
+                  <c:v>104.14</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>102.32</c:v>
+                  <c:v>102.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>99.96</c:v>
+                  <c:v>99.94</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.54</c:v>
+                  <c:v>42.58</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.02</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>97.26</c:v>
+                  <c:v>97.46</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>99.46</c:v>
+                  <c:v>99.75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>105.33</c:v>
+                  <c:v>105.84</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>104.45</c:v>
+                  <c:v>104.24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>101.83</c:v>
+                  <c:v>101.79</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47.67</c:v>
+                  <c:v>47.9</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>36.64</c:v>
+                  <c:v>36.66</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>100</c:v>
+                  <c:v>100.26</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>101.98</c:v>
+                  <c:v>102.6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>107.6</c:v>
+                  <c:v>107.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1314,10 +1314,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D2">
-        <v>92.6</v>
+        <v>92.49</v>
       </c>
       <c r="E2">
         <v>73.65</v>
@@ -1331,10 +1331,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D3">
-        <v>93.8</v>
+        <v>93.59</v>
       </c>
       <c r="E3">
         <v>73.81</v>
@@ -1348,10 +1348,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D4">
-        <v>100.02</v>
+        <v>100.35</v>
       </c>
       <c r="E4">
         <v>73.97</v>
@@ -1365,10 +1365,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D5">
-        <v>97.58</v>
+        <v>97.48</v>
       </c>
       <c r="E5">
         <v>74.13</v>
@@ -1382,10 +1382,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D6">
-        <v>94.27</v>
+        <v>94.38</v>
       </c>
       <c r="E6">
         <v>74.29</v>
@@ -1433,10 +1433,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D9">
-        <v>93.7</v>
+        <v>93.55</v>
       </c>
       <c r="E9">
         <v>74.78</v>
@@ -1450,10 +1450,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D10">
-        <v>96.18</v>
+        <v>96.1</v>
       </c>
       <c r="E10">
         <v>74.94</v>
@@ -1467,10 +1467,10 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D11">
-        <v>101.9</v>
+        <v>102.65</v>
       </c>
       <c r="E11">
         <v>75.1</v>
@@ -1484,10 +1484,10 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D12">
-        <v>99.9</v>
+        <v>99.47</v>
       </c>
       <c r="E12">
         <v>75.26</v>
@@ -1501,10 +1501,10 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D13">
-        <v>97.72</v>
+        <v>97.74</v>
       </c>
       <c r="E13">
         <v>75.42</v>
@@ -1518,10 +1518,10 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14">
-        <v>41.66</v>
+        <v>41.64</v>
       </c>
       <c r="E14">
         <v>75.58</v>
@@ -1535,10 +1535,10 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>33.98</v>
       </c>
       <c r="E15">
         <v>75.75</v>
@@ -1552,10 +1552,10 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D16">
-        <v>95.58</v>
+        <v>95.51</v>
       </c>
       <c r="E16">
         <v>75.91</v>
@@ -1569,7 +1569,7 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D17">
         <v>97.82</v>
@@ -1586,10 +1586,10 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="D18">
-        <v>103.84</v>
+        <v>104.14</v>
       </c>
       <c r="E18">
         <v>76.23</v>
@@ -1603,10 +1603,10 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D19">
-        <v>102.32</v>
+        <v>102.2</v>
       </c>
       <c r="E19">
         <v>76.39</v>
@@ -1620,10 +1620,10 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D20">
-        <v>99.96</v>
+        <v>99.94</v>
       </c>
       <c r="E20">
         <v>76.55</v>
@@ -1637,10 +1637,10 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D21">
-        <v>42.54</v>
+        <v>42.58</v>
       </c>
       <c r="E21">
         <v>76.71</v>
@@ -1657,7 +1657,7 @@
         <v>84</v>
       </c>
       <c r="D22">
-        <v>35.02</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>76.88</v>
@@ -1671,10 +1671,10 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D23">
-        <v>97.26</v>
+        <v>97.46</v>
       </c>
       <c r="E23">
         <v>77.04</v>
@@ -1688,10 +1688,10 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="D24">
-        <v>99.46</v>
+        <v>99.75</v>
       </c>
       <c r="E24">
         <v>77.2</v>
@@ -1705,10 +1705,10 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D25">
-        <v>105.33</v>
+        <v>105.84</v>
       </c>
       <c r="E25">
         <v>77.36</v>
@@ -1722,10 +1722,10 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D26">
-        <v>104.45</v>
+        <v>104.24</v>
       </c>
       <c r="E26">
         <v>77.52</v>
@@ -1739,10 +1739,10 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D27">
-        <v>101.83</v>
+        <v>101.79</v>
       </c>
       <c r="E27">
         <v>77.68</v>
@@ -1756,10 +1756,10 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D28">
-        <v>47.67</v>
+        <v>47.9</v>
       </c>
       <c r="E28">
         <v>77.84</v>
@@ -1773,10 +1773,10 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D29">
-        <v>36.64</v>
+        <v>36.66</v>
       </c>
       <c r="E29">
         <v>78.01</v>
@@ -1790,10 +1790,10 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>100.26</v>
       </c>
       <c r="E30">
         <v>78.17</v>
@@ -1807,10 +1807,10 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="D31">
-        <v>101.98</v>
+        <v>102.6</v>
       </c>
       <c r="E31">
         <v>78.33</v>
@@ -1824,10 +1824,10 @@
         <v>42</v>
       </c>
       <c r="C32">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="D32">
-        <v>107.6</v>
+        <v>107.13</v>
       </c>
       <c r="E32">
         <v>78.49</v>
